--- a/KatalonData/IWPTestData/DisplayCFDataDemo.xlsx
+++ b/KatalonData/IWPTestData/DisplayCFDataDemo.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5328" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7372" uniqueCount="966">
   <si>
     <t>Result</t>
   </si>
@@ -1405,6 +1405,1539 @@
   </si>
   <si>
     <t>Thu Jul 24 19:20:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:19:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:19:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:20:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:20:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:21:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:21:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:21:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:22:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:22:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:22:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:23:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:23:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:24:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:24:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:24:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:24:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:25:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:25:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:25:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:26:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:26:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:26:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:27:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:27:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:27:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:28:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:28:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:28:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:29:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:29:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:29:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:30:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:30:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:30:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:31:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:31:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:31:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:32:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:32:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:32:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:33:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:33:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:33:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:34:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:34:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:34:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:35:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:35:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:35:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:36:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:36:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:36:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:37:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:37:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:38:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:38:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:38:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:38:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:39:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:39:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:39:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:40:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:40:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:40:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:41:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:41:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:41:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:42:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:42:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:42:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:43:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:43:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:43:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:44:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:44:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:44:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:45:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:45:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:45:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:46:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:46:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:46:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:47:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:47:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:47:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:48:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:48:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:48:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:49:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:49:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:49:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:50:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:50:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:50:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:51:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:51:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:51:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:52:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:52:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:52:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:53:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:53:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:53:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:54:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:54:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:54:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:55:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:55:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:55:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:56:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:56:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:56:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:57:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:57:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:57:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:58:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:58:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:58:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:59:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:59:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 09 23:59:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:00:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:00:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:00:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:01:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:01:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:01:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:02:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:02:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:02:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:03:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:03:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:03:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:04:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:04:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:04:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:05:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:05:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:05:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:06:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:06:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:06:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:07:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:07:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:07:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:08:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:08:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:08:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:09:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:09:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:09:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:10:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:10:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:10:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:11:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:11:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:11:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:12:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:12:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:12:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:13:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:13:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:13:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:14:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:14:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:14:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:15:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:15:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:15:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:16:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:16:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:16:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:17:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:17:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:17:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:18:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:18:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:29:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:30:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:30:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:31:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:32:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:32:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:33:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:34:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:34:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:35:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:36:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:36:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:37:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:38:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:38:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:39:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:40:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:40:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:41:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:42:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:42:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:43:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:44:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:44:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:45:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:45:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:46:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:47:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 23:58:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:00:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:02:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:03:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:05:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:06:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:08:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:09:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:11:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:12:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:14:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:15:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:17:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:18:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:20:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:21:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:23:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:24:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:26:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:27:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:29:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:30:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:32:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:33:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:35:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:36:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:38:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:39:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:41:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:42:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:44:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:46:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:47:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:49:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:50:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:52:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:53:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:55:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:56:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:58:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 00:59:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:01:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:02:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:04:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:05:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:07:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:08:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:10:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:11:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:13:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:15:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:16:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:17:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:18:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:19:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:21:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:22:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:24:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:25:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:26:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:27:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:28:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:30:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:31:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:32:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:34:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:35:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:36:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:37:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:39:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:40:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:42:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:43:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:45:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:46:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:47:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:48:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:50:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:51:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:53:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:54:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:56:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:57:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:58:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 01:59:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:01:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:02:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:03:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:05:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:06:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:08:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:09:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:10:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:12:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:13:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:15:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:16:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:18:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:19:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:20:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:21:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:23:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:25:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:29:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:30:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:32:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:34:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:35:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:37:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:38:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:39:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:40:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:41:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:43:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:44:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:45:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:47:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:48:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:49:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:51:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:52:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:53:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:55:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:56:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:58:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 02:59:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:00:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:01:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:02:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:04:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:05:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:07:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:08:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:09:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:10:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:11:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:13:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:15:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:16:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:17:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:19:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:20:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:22:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:23:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:24:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:26:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:27:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:28:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:30:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:31:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:32:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:33:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:34:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:35:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:36:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:38:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:39:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:40:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:41:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:42:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:43:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:44:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:45:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:47:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:48:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:49:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:50:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:51:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:52:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:53:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:54:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:56:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:57:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 03:58:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:00:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:01:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:02:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:03:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:04:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:05:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:07:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:08:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:09:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:10:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:11:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:12:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:13:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:14:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:16:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:17:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:18:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:19:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:20:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:21:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:22:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:24:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:25:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:26:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:28:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:29:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:31:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:33:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:34:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:36:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:38:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:40:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:41:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:43:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:48:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:49:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:50:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:52:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:54:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:55:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:57:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 04:58:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:00:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:02:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:04:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:05:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:07:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:09:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:10:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:12:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:14:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:16:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:17:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:19:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:21:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:22:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:24:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:26:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:28:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:30:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:32:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:34:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:36:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:37:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:39:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:40:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:42:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:43:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:45:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:46:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:48:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:50:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:51:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:53:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:54:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:56:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:57:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 05:59:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:01:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:02:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:04:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:05:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:07:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:08:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:10:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:11:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:13:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:15:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:16:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:18:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:20:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:21:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:23:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:24:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:26:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:28:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:29:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:31:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:32:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:34:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:35:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:37:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:38:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:40:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:41:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:43:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:44:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:46:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:47:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:49:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:51:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:52:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:53:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:55:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:57:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 06:59:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:01:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:02:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:07:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:08:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:10:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:11:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:13:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:14:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:16:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:18:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:19:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:21:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:22:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:24:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:25:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 11 07:27:41 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +3443,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>660</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -1977,7 +3510,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>661</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -2044,7 +3577,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>662</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -2111,7 +3644,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>663</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -2178,7 +3711,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>664</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -2245,7 +3778,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>665</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -2312,7 +3845,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>666</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -2379,7 +3912,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>667</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -2446,7 +3979,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>668</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -2513,7 +4046,7 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>669</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -2580,7 +4113,7 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>670</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -2647,7 +4180,7 @@
         <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>671</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -2714,7 +4247,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>672</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -2781,7 +4314,7 @@
         <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>673</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -2848,7 +4381,7 @@
         <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>674</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -2915,7 +4448,7 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>675</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -2982,7 +4515,7 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>676</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -3049,7 +4582,7 @@
         <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>677</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -3116,7 +4649,7 @@
         <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>678</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -3183,7 +4716,7 @@
         <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>679</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -3250,7 +4783,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>680</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -3317,7 +4850,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>681</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -3384,7 +4917,7 @@
         <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>682</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
@@ -3451,7 +4984,7 @@
         <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>683</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
@@ -3518,7 +5051,7 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>684</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -3585,7 +5118,7 @@
         <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>685</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -3652,7 +5185,7 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>686</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -3719,7 +5252,7 @@
         <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>687</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -3786,7 +5319,7 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>688</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -3853,7 +5386,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>689</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -3920,7 +5453,7 @@
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>690</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
@@ -3987,7 +5520,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>691</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
@@ -4054,7 +5587,7 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>692</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
@@ -4121,7 +5654,7 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>693</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
@@ -4188,7 +5721,7 @@
         <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>694</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
@@ -4255,7 +5788,7 @@
         <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>695</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
@@ -4322,7 +5855,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>696</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
@@ -4389,7 +5922,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>697</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
@@ -4456,7 +5989,7 @@
         <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>698</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
@@ -4523,7 +6056,7 @@
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>699</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
@@ -4590,7 +6123,7 @@
         <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
@@ -4657,7 +6190,7 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>701</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
@@ -4724,7 +6257,7 @@
         <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>702</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
@@ -4791,7 +6324,7 @@
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>703</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
@@ -4858,7 +6391,7 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>704</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
@@ -4925,7 +6458,7 @@
         <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>705</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
@@ -4992,7 +6525,7 @@
         <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>706</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
@@ -5059,7 +6592,7 @@
         <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>707</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>28</v>
@@ -5126,7 +6659,7 @@
         <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>708</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>96</v>
@@ -5193,7 +6726,7 @@
         <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>709</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>91</v>
@@ -5257,10 +6790,10 @@
     </row>
     <row ht="115.2" r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>710</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>97</v>
@@ -5454,7 +6987,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>903</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -5522,7 +7055,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>904</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -5590,7 +7123,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>905</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -5658,7 +7191,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>906</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -5726,7 +7259,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>907</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -5794,7 +7327,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>908</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -5862,7 +7395,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>909</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -5930,7 +7463,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>910</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -5998,7 +7531,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>911</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -6313,10 +7846,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>912</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -6384,7 +7917,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>913</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -6452,7 +7985,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>914</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -6520,7 +8053,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>915</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -6588,7 +8121,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>916</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -6656,7 +8189,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>917</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -6724,7 +8257,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>918</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -6792,7 +8325,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>919</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -6860,7 +8393,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>920</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -7175,10 +8708,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>921</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -7243,10 +8776,10 @@
     </row>
     <row ht="57.6" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>922</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -7311,10 +8844,10 @@
     </row>
     <row ht="57.6" r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>923</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -7379,10 +8912,10 @@
     </row>
     <row ht="57.6" r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>924</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -7447,10 +8980,10 @@
     </row>
     <row ht="57.6" r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>925</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -7515,10 +9048,10 @@
     </row>
     <row ht="57.6" r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>926</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -7583,10 +9116,10 @@
     </row>
     <row ht="57.6" r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>927</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -7651,10 +9184,10 @@
     </row>
     <row ht="57.6" r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>928</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -7719,10 +9252,10 @@
     </row>
     <row ht="57.6" r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>929</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -8040,10 +9573,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>930</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -8111,7 +9644,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>931</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -8179,7 +9712,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>932</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -8247,7 +9780,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>933</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -8315,7 +9848,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>394</v>
+        <v>934</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -8383,7 +9916,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>395</v>
+        <v>935</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -8451,7 +9984,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>396</v>
+        <v>936</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -8519,7 +10052,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>397</v>
+        <v>937</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -8587,7 +10120,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>938</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -8907,7 +10440,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>449</v>
+        <v>939</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -8975,7 +10508,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>940</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -9043,7 +10576,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>941</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -9111,7 +10644,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>942</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -9179,7 +10712,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>943</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -9247,7 +10780,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>944</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -9315,7 +10848,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>945</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -9383,7 +10916,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>946</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -9451,7 +10984,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>947</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -9767,10 +11300,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>948</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -9835,10 +11368,10 @@
     </row>
     <row ht="57.6" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>949</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -9903,10 +11436,10 @@
     </row>
     <row ht="57.6" r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>950</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -9971,10 +11504,10 @@
     </row>
     <row ht="57.6" r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>951</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -10039,10 +11572,10 @@
     </row>
     <row ht="57.6" r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
+        <v>952</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -10107,10 +11640,10 @@
     </row>
     <row ht="57.6" r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>953</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -10175,10 +11708,10 @@
     </row>
     <row ht="57.6" r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>954</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -10246,7 +11779,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>955</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -10311,10 +11844,10 @@
     </row>
     <row ht="57.6" r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>956</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -10630,10 +12163,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>957</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -10698,10 +12231,10 @@
     </row>
     <row ht="57.6" r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>410</v>
+        <v>958</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -10766,10 +12299,10 @@
     </row>
     <row ht="57.6" r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>411</v>
+        <v>959</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -10834,10 +12367,10 @@
     </row>
     <row ht="57.6" r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>960</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -10902,10 +12435,10 @@
     </row>
     <row ht="57.6" r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>961</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -10970,10 +12503,10 @@
     </row>
     <row ht="57.6" r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>414</v>
+        <v>962</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -11038,10 +12571,10 @@
     </row>
     <row ht="57.6" r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>415</v>
+        <v>963</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -11106,10 +12639,10 @@
     </row>
     <row ht="57.6" r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>416</v>
+        <v>964</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -11177,7 +12710,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>965</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -11490,7 +13023,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>711</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -11557,7 +13090,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>712</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -11621,10 +13154,10 @@
     </row>
     <row ht="72" r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>713</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -11691,7 +13224,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>714</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -11758,7 +13291,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>715</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -11825,7 +13358,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>716</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -11889,10 +13422,10 @@
     </row>
     <row ht="72" r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>717</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -11956,10 +13489,10 @@
     </row>
     <row ht="72" r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>718</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -12023,10 +13556,10 @@
     </row>
     <row ht="72" r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>719</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -12090,10 +13623,10 @@
     </row>
     <row ht="72" r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -12157,10 +13690,10 @@
     </row>
     <row ht="72" r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>721</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -12224,10 +13757,10 @@
     </row>
     <row ht="72" r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>722</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -12294,7 +13827,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>723</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -12361,7 +13894,7 @@
         <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>724</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -12428,7 +13961,7 @@
         <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>725</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -12492,10 +14025,10 @@
     </row>
     <row ht="72" r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>726</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -12559,10 +14092,10 @@
     </row>
     <row ht="72" r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>727</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -12629,7 +14162,7 @@
         <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>728</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -12693,10 +14226,10 @@
     </row>
     <row ht="72" r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>729</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -12763,7 +14296,7 @@
         <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>730</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -12830,7 +14363,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>731</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -12897,7 +14430,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>732</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -12961,10 +14494,10 @@
     </row>
     <row ht="72" r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>733</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
@@ -13031,7 +14564,7 @@
         <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>734</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
@@ -13095,10 +14628,10 @@
     </row>
     <row ht="72" r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>735</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -13165,7 +14698,7 @@
         <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>736</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -13229,10 +14762,10 @@
     </row>
     <row ht="72" r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>737</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -13299,7 +14832,7 @@
         <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>738</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -13366,7 +14899,7 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>739</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -13433,7 +14966,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>740</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -13500,7 +15033,7 @@
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>741</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
@@ -13564,10 +15097,10 @@
     </row>
     <row ht="72" r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>742</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
@@ -13631,10 +15164,10 @@
     </row>
     <row ht="72" r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>743</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
@@ -13701,7 +15234,7 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>744</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
@@ -13765,10 +15298,10 @@
     </row>
     <row ht="72" r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>745</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
@@ -13832,10 +15365,10 @@
     </row>
     <row ht="72" r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>746</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
@@ -13902,7 +15435,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>747</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
@@ -13969,7 +15502,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>748</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
@@ -14036,7 +15569,7 @@
         <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>749</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
@@ -14103,7 +15636,7 @@
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>750</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
@@ -14167,10 +15700,10 @@
     </row>
     <row ht="72" r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>751</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
@@ -14237,7 +15770,7 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>752</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
@@ -14301,10 +15834,10 @@
     </row>
     <row ht="72" r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>753</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
@@ -14371,7 +15904,7 @@
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>754</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
@@ -14438,7 +15971,7 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>755</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
@@ -14505,7 +16038,7 @@
         <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>756</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
@@ -14569,10 +16102,10 @@
     </row>
     <row ht="72" r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>757</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
@@ -14636,10 +16169,10 @@
     </row>
     <row ht="72" r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>218</v>
+        <v>758</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>28</v>
@@ -14706,7 +16239,7 @@
         <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>759</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>28</v>
@@ -14894,7 +16427,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>760</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -14961,7 +16494,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>761</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -15028,7 +16561,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>762</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -15092,10 +16625,10 @@
     </row>
     <row ht="72" r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>763</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -15162,7 +16695,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>764</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -15229,7 +16762,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>765</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -15293,10 +16826,10 @@
     </row>
     <row ht="72" r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>766</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -15363,7 +16896,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>767</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -15427,10 +16960,10 @@
     </row>
     <row ht="72" r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>768</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -15497,7 +17030,7 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>769</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -15561,10 +17094,10 @@
     </row>
     <row ht="72" r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>770</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -15628,10 +17161,10 @@
     </row>
     <row ht="72" r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>771</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -15698,7 +17231,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>772</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -15765,7 +17298,7 @@
         <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>773</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -15829,10 +17362,10 @@
     </row>
     <row ht="72" r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>774</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -15899,7 +17432,7 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>775</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -15963,10 +17496,10 @@
     </row>
     <row ht="72" r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>776</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -16033,7 +17566,7 @@
         <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>777</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -16097,10 +17630,10 @@
     </row>
     <row ht="72" r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>778</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -16164,10 +17697,10 @@
     </row>
     <row ht="72" r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>779</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -16234,7 +17767,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>780</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -16301,7 +17834,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>781</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -16368,7 +17901,7 @@
         <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>782</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
@@ -16432,10 +17965,10 @@
     </row>
     <row ht="72" r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>783</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
@@ -16502,7 +18035,7 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>784</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -16566,10 +18099,10 @@
     </row>
     <row ht="72" r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>785</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -16633,10 +18166,10 @@
     </row>
     <row ht="72" r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>786</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -16700,10 +18233,10 @@
     </row>
     <row ht="72" r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>787</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -16770,7 +18303,7 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>788</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -16837,7 +18370,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>789</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -16901,10 +18434,10 @@
     </row>
     <row ht="72" r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>790</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
@@ -16968,10 +18501,10 @@
     </row>
     <row ht="72" r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>791</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
@@ -17038,7 +18571,7 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>792</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
@@ -17102,10 +18635,10 @@
     </row>
     <row ht="72" r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>793</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
@@ -17169,10 +18702,10 @@
     </row>
     <row ht="72" r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>254</v>
+        <v>794</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
@@ -17239,7 +18772,7 @@
         <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>255</v>
+        <v>795</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
@@ -17306,7 +18839,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>796</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
@@ -17373,7 +18906,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
+        <v>797</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
@@ -17437,10 +18970,10 @@
     </row>
     <row ht="72" r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>798</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
@@ -17507,7 +19040,7 @@
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>799</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
@@ -17571,10 +19104,10 @@
     </row>
     <row ht="72" r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>800</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
@@ -17641,7 +19174,7 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>261</v>
+        <v>801</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
@@ -17705,10 +19238,10 @@
     </row>
     <row ht="72" r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>802</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
@@ -17775,7 +19308,7 @@
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>803</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
@@ -17842,7 +19375,7 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>804</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
@@ -17909,7 +19442,7 @@
         <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>265</v>
+        <v>805</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
@@ -17973,10 +19506,10 @@
     </row>
     <row ht="72" r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>806</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
@@ -18040,10 +19573,10 @@
     </row>
     <row ht="72" r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>807</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>28</v>
@@ -18110,7 +19643,7 @@
         <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>808</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>28</v>
@@ -18302,7 +19835,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>809</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -18369,7 +19902,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -18436,7 +19969,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>811</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -18503,7 +20036,7 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>812</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -18570,7 +20103,7 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>813</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -18634,10 +20167,10 @@
     </row>
     <row ht="72" r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>814</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -18701,10 +20234,10 @@
     </row>
     <row ht="72" r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>815</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -18768,10 +20301,10 @@
     </row>
     <row ht="72" r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>816</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -18835,10 +20368,10 @@
     </row>
     <row ht="72" r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>817</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -18902,10 +20435,10 @@
     </row>
     <row ht="72" r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>818</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -18969,10 +20502,10 @@
     </row>
     <row ht="72" r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>819</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -19036,10 +20569,10 @@
     </row>
     <row ht="72" r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>820</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -19103,10 +20636,10 @@
     </row>
     <row ht="72" r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>821</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -19170,10 +20703,10 @@
     </row>
     <row ht="72" r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>822</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -19237,10 +20770,10 @@
     </row>
     <row ht="72" r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>823</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -19304,10 +20837,10 @@
     </row>
     <row ht="72" r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>824</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -19371,10 +20904,10 @@
     </row>
     <row ht="72" r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>825</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -19438,10 +20971,10 @@
     </row>
     <row ht="72" r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>826</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -19505,10 +21038,10 @@
     </row>
     <row ht="72" r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>827</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -19572,10 +21105,10 @@
     </row>
     <row ht="72" r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>828</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -19639,10 +21172,10 @@
     </row>
     <row ht="72" r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>829</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -19709,7 +21242,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>830</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -19773,10 +21306,10 @@
     </row>
     <row ht="72" r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>831</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
@@ -19840,10 +21373,10 @@
     </row>
     <row ht="72" r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>832</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
@@ -19907,10 +21440,10 @@
     </row>
     <row ht="72" r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>833</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -19974,10 +21507,10 @@
     </row>
     <row ht="72" r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>834</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -20041,10 +21574,10 @@
     </row>
     <row ht="72" r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>835</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -20108,10 +21641,10 @@
     </row>
     <row ht="72" r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>296</v>
+        <v>836</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -20175,10 +21708,10 @@
     </row>
     <row ht="72" r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>837</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -20242,10 +21775,10 @@
     </row>
     <row ht="72" r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>838</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -20309,10 +21842,10 @@
     </row>
     <row ht="72" r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>839</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
@@ -20376,10 +21909,10 @@
     </row>
     <row ht="72" r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
@@ -20443,10 +21976,10 @@
     </row>
     <row ht="72" r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>841</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
@@ -20510,10 +22043,10 @@
     </row>
     <row ht="72" r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>842</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
@@ -20577,10 +22110,10 @@
     </row>
     <row ht="72" r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>843</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
@@ -20644,10 +22177,10 @@
     </row>
     <row ht="72" r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>304</v>
+        <v>844</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
@@ -20711,10 +22244,10 @@
     </row>
     <row ht="72" r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>845</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
@@ -20778,10 +22311,10 @@
     </row>
     <row ht="72" r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>306</v>
+        <v>846</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
@@ -20845,10 +22378,10 @@
     </row>
     <row ht="72" r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>847</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
@@ -20912,10 +22445,10 @@
     </row>
     <row ht="72" r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>308</v>
+        <v>848</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
@@ -20979,10 +22512,10 @@
     </row>
     <row ht="72" r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>309</v>
+        <v>849</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
@@ -21046,10 +22579,10 @@
     </row>
     <row ht="72" r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>310</v>
+        <v>850</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
@@ -21113,10 +22646,10 @@
     </row>
     <row ht="72" r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>311</v>
+        <v>851</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
@@ -21180,10 +22713,10 @@
     </row>
     <row ht="72" r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>312</v>
+        <v>852</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
@@ -21247,10 +22780,10 @@
     </row>
     <row ht="72" r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>853</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
@@ -21314,10 +22847,10 @@
     </row>
     <row ht="72" r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>314</v>
+        <v>854</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
@@ -21381,10 +22914,10 @@
     </row>
     <row ht="72" r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>315</v>
+        <v>855</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
@@ -21448,10 +22981,10 @@
     </row>
     <row ht="72" r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>316</v>
+        <v>856</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>28</v>
@@ -21515,10 +23048,10 @@
     </row>
     <row ht="72" r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>317</v>
+        <v>857</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>28</v>
@@ -21711,10 +23244,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>858</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -21778,10 +23311,10 @@
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>859</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -21845,10 +23378,10 @@
     </row>
     <row ht="72" r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>860</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -21915,7 +23448,7 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>861</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
@@ -21982,7 +23515,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>862</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -22049,7 +23582,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>863</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -22116,7 +23649,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>864</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -22180,10 +23713,10 @@
     </row>
     <row ht="72" r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>865</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -22250,7 +23783,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>866</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
@@ -22563,10 +24096,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>867</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -22630,10 +24163,10 @@
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>868</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -22697,10 +24230,10 @@
     </row>
     <row ht="72" r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>869</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -22767,7 +24300,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>870</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
@@ -22834,7 +24367,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>871</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -22901,7 +24434,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>872</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -22965,10 +24498,10 @@
     </row>
     <row ht="72" r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>873</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -23035,7 +24568,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>334</v>
+        <v>874</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -23102,7 +24635,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>875</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
@@ -23415,10 +24948,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>876</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -23485,7 +25018,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>877</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -23552,7 +25085,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>878</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -23619,7 +25152,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>879</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
@@ -23686,7 +25219,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>880</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -23753,7 +25286,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>881</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -23820,7 +25353,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>882</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -23887,7 +25420,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>883</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -23954,7 +25487,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>884</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
@@ -24267,10 +25800,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>885</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -24334,10 +25867,10 @@
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>886</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -24401,10 +25934,10 @@
     </row>
     <row ht="72" r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>887</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -24468,10 +26001,10 @@
     </row>
     <row ht="72" r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>888</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
@@ -24535,10 +26068,10 @@
     </row>
     <row ht="72" r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>889</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -24602,10 +26135,10 @@
     </row>
     <row ht="72" r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>890</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -24669,10 +26202,10 @@
     </row>
     <row ht="72" r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>891</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -24736,10 +26269,10 @@
     </row>
     <row ht="72" r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>892</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -24803,10 +26336,10 @@
     </row>
     <row ht="72" r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>893</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
@@ -25124,7 +26657,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>894</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -25192,7 +26725,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>895</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -25260,7 +26793,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>896</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -25328,7 +26861,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>897</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -25396,7 +26929,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>898</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -25464,7 +26997,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>899</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -25532,7 +27065,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>900</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -25600,7 +27133,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>901</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -25668,7 +27201,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>902</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>

--- a/KatalonData/IWPTestData/DisplayCFDataDemo.xlsx
+++ b/KatalonData/IWPTestData/DisplayCFDataDemo.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7372" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8596" uniqueCount="1272">
   <si>
     <t>Result</t>
   </si>
@@ -2938,6 +2938,924 @@
   </si>
   <si>
     <t>Thu Sep 11 07:27:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:23:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:26:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:27:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:29:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:30:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:32:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:33:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:35:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:36:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:38:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:39:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:41:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:42:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:44:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:45:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:46:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:48:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:50:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:51:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:53:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:54:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:56:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:57:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 10 23:58:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:00:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:01:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:03:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:04:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:06:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:07:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:09:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:10:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:12:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:13:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:15:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:16:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:18:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:19:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:21:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:22:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:24:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:25:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:27:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:28:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:30:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:31:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:33:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:34:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:36:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:37:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:39:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:40:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:41:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:43:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:44:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:46:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:47:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:49:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:50:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:51:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:52:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:53:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:54:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:55:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:57:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 00:59:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:00:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:01:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:02:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:03:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:04:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:05:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:07:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:08:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:09:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:11:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:12:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:13:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:15:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:16:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:18:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:19:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:21:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:22:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:23:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:24:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:25:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:26:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:28:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:29:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:30:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:32:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:33:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:34:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:36:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:37:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:38:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:40:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:41:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:42:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:43:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:46:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:48:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:50:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:51:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:52:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:53:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:54:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:55:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:56:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:57:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 01:59:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:01:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:02:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:04:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:05:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:06:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:07:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:08:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:10:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:11:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:12:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:14:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:15:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:16:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:17:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:18:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:19:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:21:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:23:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:24:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:25:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:27:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:28:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:29:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:30:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:31:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:33:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:34:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:35:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:36:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:37:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:39:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:40:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:41:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:43:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:45:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:46:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:47:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:49:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:50:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:51:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:52:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:53:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:54:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:55:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:57:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:58:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 02:59:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:00:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:01:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:02:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:03:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:04:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:05:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:06:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:07:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:09:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:10:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:11:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:12:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:13:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:14:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:15:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:16:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:17:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:18:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:19:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:20:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:22:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:23:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:24:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:25:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:26:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:27:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:28:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:29:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:30:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:31:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:32:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:33:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:35:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:36:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:37:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:38:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:39:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:40:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:41:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:42:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:44:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:46:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:48:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:50:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:52:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:53:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:55:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:56:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:58:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 03:59:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:01:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:02:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:04:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:05:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:07:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:09:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:10:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:12:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:14:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:16:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:17:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:19:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:21:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:22:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:24:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:26:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:27:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:29:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:31:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:33:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:34:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:36:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:38:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:40:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:41:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:43:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:45:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:46:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:48:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:49:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:51:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:52:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:54:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:55:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:56:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 04:59:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:01:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:02:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:04:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:05:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:07:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:08:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:09:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:11:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:13:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:15:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:16:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:18:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:19:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:21:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:22:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:24:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:25:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:27:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:28:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:30:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:31:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:33:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:34:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:36:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:38:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:39:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:41:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:42:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:44:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:45:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:47:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:48:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:50:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:51:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:53:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:54:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:56:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:58:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 05:59:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:01:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:02:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:04:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:05:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:07:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:08:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:10:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:12:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:13:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:15:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:16:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:18:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:19:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:21:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:23:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:24:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:26:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:27:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:29:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:30:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:32:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 11 06:33:58 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -3443,7 +4361,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>660</v>
+        <v>966</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -3510,7 +4428,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>661</v>
+        <v>967</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -3577,7 +4495,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>662</v>
+        <v>968</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -3644,7 +4562,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>663</v>
+        <v>969</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -3711,7 +4629,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>664</v>
+        <v>970</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -3778,7 +4696,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>665</v>
+        <v>971</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -3845,7 +4763,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>666</v>
+        <v>972</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -3912,7 +4830,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>667</v>
+        <v>973</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -3979,7 +4897,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>668</v>
+        <v>974</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -4046,7 +4964,7 @@
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>669</v>
+        <v>975</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -4113,7 +5031,7 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>670</v>
+        <v>976</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -4180,7 +5098,7 @@
         <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>671</v>
+        <v>977</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -4247,7 +5165,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>672</v>
+        <v>978</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -4314,7 +5232,7 @@
         <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>673</v>
+        <v>979</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -4381,7 +5299,7 @@
         <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>674</v>
+        <v>980</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -4448,7 +5366,7 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>675</v>
+        <v>981</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -4515,7 +5433,7 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>676</v>
+        <v>982</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -4582,7 +5500,7 @@
         <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>677</v>
+        <v>983</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -4649,7 +5567,7 @@
         <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>678</v>
+        <v>984</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -4716,7 +5634,7 @@
         <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>679</v>
+        <v>985</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -4783,7 +5701,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>680</v>
+        <v>986</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -4850,7 +5768,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>681</v>
+        <v>987</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -4917,7 +5835,7 @@
         <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>682</v>
+        <v>988</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
@@ -4984,7 +5902,7 @@
         <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>683</v>
+        <v>989</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
@@ -5051,7 +5969,7 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>684</v>
+        <v>990</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -5118,7 +6036,7 @@
         <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>685</v>
+        <v>991</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -5185,7 +6103,7 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>686</v>
+        <v>992</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -5252,7 +6170,7 @@
         <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>687</v>
+        <v>993</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -5319,7 +6237,7 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>688</v>
+        <v>994</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -5386,7 +6304,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>689</v>
+        <v>995</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -5453,7 +6371,7 @@
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>690</v>
+        <v>996</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
@@ -5520,7 +6438,7 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>691</v>
+        <v>997</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
@@ -5587,7 +6505,7 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
@@ -5654,7 +6572,7 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>693</v>
+        <v>999</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
@@ -5721,7 +6639,7 @@
         <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
@@ -5788,7 +6706,7 @@
         <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>695</v>
+        <v>1001</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
@@ -5855,7 +6773,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>696</v>
+        <v>1002</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
@@ -5922,7 +6840,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>697</v>
+        <v>1003</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
@@ -5989,7 +6907,7 @@
         <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>698</v>
+        <v>1004</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
@@ -6056,7 +6974,7 @@
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>699</v>
+        <v>1005</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
@@ -6123,7 +7041,7 @@
         <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>700</v>
+        <v>1006</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
@@ -6190,7 +7108,7 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>701</v>
+        <v>1007</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
@@ -6257,7 +7175,7 @@
         <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>702</v>
+        <v>1008</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
@@ -6324,7 +7242,7 @@
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>703</v>
+        <v>1009</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
@@ -6391,7 +7309,7 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>704</v>
+        <v>1010</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
@@ -6458,7 +7376,7 @@
         <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>705</v>
+        <v>1011</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
@@ -6525,7 +7443,7 @@
         <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>706</v>
+        <v>1012</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
@@ -6592,7 +7510,7 @@
         <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>707</v>
+        <v>1013</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>28</v>
@@ -6659,7 +7577,7 @@
         <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>708</v>
+        <v>1014</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>96</v>
@@ -6726,7 +7644,7 @@
         <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>709</v>
+        <v>1015</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>91</v>
@@ -6790,10 +7708,10 @@
     </row>
     <row ht="115.2" r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>710</v>
+        <v>1016</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>97</v>
@@ -6987,7 +7905,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>903</v>
+        <v>1209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -7055,7 +7973,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>904</v>
+        <v>1210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -7123,7 +8041,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>905</v>
+        <v>1211</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -7191,7 +8109,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>906</v>
+        <v>1212</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -7259,7 +8177,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>907</v>
+        <v>1213</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -7327,7 +8245,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>908</v>
+        <v>1214</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -7395,7 +8313,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>909</v>
+        <v>1215</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -7463,7 +8381,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>910</v>
+        <v>1216</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -7531,7 +8449,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>911</v>
+        <v>1217</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -7849,7 +8767,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>912</v>
+        <v>1218</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -7917,7 +8835,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>913</v>
+        <v>1219</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -7985,7 +8903,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>914</v>
+        <v>1220</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -8053,7 +8971,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>915</v>
+        <v>1221</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -8121,7 +9039,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>916</v>
+        <v>1222</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -8189,7 +9107,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>917</v>
+        <v>1223</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -8257,7 +9175,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>918</v>
+        <v>1224</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -8325,7 +9243,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>919</v>
+        <v>1225</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -8393,7 +9311,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>920</v>
+        <v>1226</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -8711,7 +9629,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>921</v>
+        <v>1227</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -8779,7 +9697,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>922</v>
+        <v>1228</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -8847,7 +9765,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>923</v>
+        <v>1229</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -8915,7 +9833,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>924</v>
+        <v>1230</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -8983,7 +9901,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>925</v>
+        <v>1231</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -9051,7 +9969,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>926</v>
+        <v>1232</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -9119,7 +10037,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>927</v>
+        <v>1233</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -9187,7 +10105,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>928</v>
+        <v>1234</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -9255,7 +10173,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>929</v>
+        <v>1235</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -9576,7 +10494,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>930</v>
+        <v>1236</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -9644,7 +10562,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>931</v>
+        <v>1237</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -9712,7 +10630,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>932</v>
+        <v>1238</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -9780,7 +10698,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>933</v>
+        <v>1239</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -9848,7 +10766,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>934</v>
+        <v>1240</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -9916,7 +10834,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>935</v>
+        <v>1241</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -9984,7 +10902,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>936</v>
+        <v>1242</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -10052,7 +10970,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>937</v>
+        <v>1243</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -10120,7 +11038,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>938</v>
+        <v>1244</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -10440,7 +11358,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>939</v>
+        <v>1245</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -10508,7 +11426,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>940</v>
+        <v>1246</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -10576,7 +11494,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>941</v>
+        <v>1247</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -10644,7 +11562,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>942</v>
+        <v>1248</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -10712,7 +11630,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>943</v>
+        <v>1249</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -10780,7 +11698,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>944</v>
+        <v>1250</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -10848,7 +11766,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>945</v>
+        <v>1251</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -10916,7 +11834,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>946</v>
+        <v>1252</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -10984,7 +11902,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>947</v>
+        <v>1253</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -11303,7 +12221,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>948</v>
+        <v>1254</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -11371,7 +12289,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>949</v>
+        <v>1255</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -11439,7 +12357,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>950</v>
+        <v>1256</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -11507,7 +12425,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>951</v>
+        <v>1257</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -11575,7 +12493,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>952</v>
+        <v>1258</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -11643,7 +12561,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>953</v>
+        <v>1259</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -11711,7 +12629,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>954</v>
+        <v>1260</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -11779,7 +12697,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>955</v>
+        <v>1261</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -11847,7 +12765,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>956</v>
+        <v>1262</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -12166,7 +13084,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>957</v>
+        <v>1263</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -12234,7 +13152,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>958</v>
+        <v>1264</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -12302,7 +13220,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>959</v>
+        <v>1265</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -12370,7 +13288,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>960</v>
+        <v>1266</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -12438,7 +13356,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>961</v>
+        <v>1267</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -12506,7 +13424,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>962</v>
+        <v>1268</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -12574,7 +13492,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>963</v>
+        <v>1269</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -12642,7 +13560,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>964</v>
+        <v>1270</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -12710,7 +13628,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>965</v>
+        <v>1271</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -13020,10 +13938,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>711</v>
+        <v>1017</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -13090,7 +14008,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>712</v>
+        <v>1018</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -13154,10 +14072,10 @@
     </row>
     <row ht="72" r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>713</v>
+        <v>1019</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -13224,7 +14142,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>714</v>
+        <v>1020</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -13291,7 +14209,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>715</v>
+        <v>1021</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -13358,7 +14276,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>716</v>
+        <v>1022</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -13422,10 +14340,10 @@
     </row>
     <row ht="72" r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>717</v>
+        <v>1023</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -13492,7 +14410,7 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>718</v>
+        <v>1024</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -13559,7 +14477,7 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>719</v>
+        <v>1025</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -13626,7 +14544,7 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>720</v>
+        <v>1026</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -13693,7 +14611,7 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>721</v>
+        <v>1027</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -13760,7 +14678,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>722</v>
+        <v>1028</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -13827,7 +14745,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>723</v>
+        <v>1029</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -13894,7 +14812,7 @@
         <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>724</v>
+        <v>1030</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -13961,7 +14879,7 @@
         <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>725</v>
+        <v>1031</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -14028,7 +14946,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>726</v>
+        <v>1032</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -14095,7 +15013,7 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>727</v>
+        <v>1033</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -14159,10 +15077,10 @@
     </row>
     <row ht="72" r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>728</v>
+        <v>1034</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -14229,7 +15147,7 @@
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>729</v>
+        <v>1035</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -14293,10 +15211,10 @@
     </row>
     <row ht="72" r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>730</v>
+        <v>1036</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -14363,7 +15281,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>731</v>
+        <v>1037</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -14430,7 +15348,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>732</v>
+        <v>1038</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -14497,7 +15415,7 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>733</v>
+        <v>1039</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
@@ -14564,7 +15482,7 @@
         <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>734</v>
+        <v>1040</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
@@ -14628,10 +15546,10 @@
     </row>
     <row ht="72" r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>735</v>
+        <v>1041</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -14695,10 +15613,10 @@
     </row>
     <row ht="72" r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>736</v>
+        <v>1042</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -14762,10 +15680,10 @@
     </row>
     <row ht="72" r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>737</v>
+        <v>1043</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -14829,10 +15747,10 @@
     </row>
     <row ht="72" r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>738</v>
+        <v>1044</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -14899,7 +15817,7 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>739</v>
+        <v>1045</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -14966,7 +15884,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>740</v>
+        <v>1046</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -15033,7 +15951,7 @@
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>741</v>
+        <v>1047</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
@@ -15100,7 +16018,7 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>742</v>
+        <v>1048</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
@@ -15167,7 +16085,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>743</v>
+        <v>1049</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
@@ -15231,10 +16149,10 @@
     </row>
     <row ht="72" r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>744</v>
+        <v>1050</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
@@ -15298,10 +16216,10 @@
     </row>
     <row ht="72" r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>745</v>
+        <v>1051</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
@@ -15368,7 +16286,7 @@
         <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>746</v>
+        <v>1052</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
@@ -15435,7 +16353,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>747</v>
+        <v>1053</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
@@ -15502,7 +16420,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>748</v>
+        <v>1054</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
@@ -15566,10 +16484,10 @@
     </row>
     <row ht="72" r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>749</v>
+        <v>1055</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
@@ -15636,7 +16554,7 @@
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>750</v>
+        <v>1056</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
@@ -15703,7 +16621,7 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>751</v>
+        <v>1057</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
@@ -15770,7 +16688,7 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>752</v>
+        <v>1058</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
@@ -15837,7 +16755,7 @@
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>753</v>
+        <v>1059</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
@@ -15901,10 +16819,10 @@
     </row>
     <row ht="72" r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>754</v>
+        <v>1060</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
@@ -15971,7 +16889,7 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>755</v>
+        <v>1061</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
@@ -16038,7 +16956,7 @@
         <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>756</v>
+        <v>1062</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
@@ -16105,7 +17023,7 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>757</v>
+        <v>1063</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
@@ -16169,10 +17087,10 @@
     </row>
     <row ht="72" r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>758</v>
+        <v>1064</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>28</v>
@@ -16239,7 +17157,7 @@
         <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>759</v>
+        <v>1065</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>28</v>
@@ -16424,10 +17342,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>760</v>
+        <v>1066</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -16494,7 +17412,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>761</v>
+        <v>1067</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -16558,10 +17476,10 @@
     </row>
     <row ht="72" r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>762</v>
+        <v>1068</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -16628,7 +17546,7 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>763</v>
+        <v>1069</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -16695,7 +17613,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>764</v>
+        <v>1070</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -16762,7 +17680,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>765</v>
+        <v>1071</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -16829,7 +17747,7 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>766</v>
+        <v>1072</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -16893,10 +17811,10 @@
     </row>
     <row ht="72" r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>767</v>
+        <v>1073</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -16963,7 +17881,7 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>768</v>
+        <v>1074</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -17027,10 +17945,10 @@
     </row>
     <row ht="72" r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>769</v>
+        <v>1075</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -17094,10 +18012,10 @@
     </row>
     <row ht="72" r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>770</v>
+        <v>1076</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -17161,10 +18079,10 @@
     </row>
     <row ht="72" r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>771</v>
+        <v>1077</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -17231,7 +18149,7 @@
         <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>772</v>
+        <v>1078</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -17298,7 +18216,7 @@
         <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>773</v>
+        <v>1079</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -17365,7 +18283,7 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>774</v>
+        <v>1080</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -17432,7 +18350,7 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>775</v>
+        <v>1081</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -17499,7 +18417,7 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>776</v>
+        <v>1082</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -17563,10 +18481,10 @@
     </row>
     <row ht="72" r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>777</v>
+        <v>1083</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -17630,10 +18548,10 @@
     </row>
     <row ht="72" r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>778</v>
+        <v>1084</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -17700,7 +18618,7 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>779</v>
+        <v>1085</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -17767,7 +18685,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>780</v>
+        <v>1086</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -17834,7 +18752,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>781</v>
+        <v>1087</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -17898,10 +18816,10 @@
     </row>
     <row ht="72" r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>782</v>
+        <v>1088</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
@@ -17968,7 +18886,7 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>783</v>
+        <v>1089</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
@@ -18035,7 +18953,7 @@
         <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>784</v>
+        <v>1090</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -18102,7 +19020,7 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>785</v>
+        <v>1091</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -18169,7 +19087,7 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>786</v>
+        <v>1092</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -18233,10 +19151,10 @@
     </row>
     <row ht="72" r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>787</v>
+        <v>1093</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -18303,7 +19221,7 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>788</v>
+        <v>1094</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -18370,7 +19288,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>789</v>
+        <v>1095</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -18437,7 +19355,7 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>790</v>
+        <v>1096</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
@@ -18501,10 +19419,10 @@
     </row>
     <row ht="72" r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>791</v>
+        <v>1097</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
@@ -18568,10 +19486,10 @@
     </row>
     <row ht="72" r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>792</v>
+        <v>1098</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
@@ -18635,10 +19553,10 @@
     </row>
     <row ht="72" r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>793</v>
+        <v>1099</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
@@ -18705,7 +19623,7 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>794</v>
+        <v>1100</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
@@ -18769,10 +19687,10 @@
     </row>
     <row ht="72" r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>795</v>
+        <v>1101</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
@@ -18839,7 +19757,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>796</v>
+        <v>1102</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
@@ -18906,7 +19824,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>797</v>
+        <v>1103</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
@@ -18973,7 +19891,7 @@
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>798</v>
+        <v>1104</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
@@ -19037,10 +19955,10 @@
     </row>
     <row ht="72" r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>799</v>
+        <v>1105</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
@@ -19107,7 +20025,7 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>800</v>
+        <v>1106</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
@@ -19174,7 +20092,7 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>801</v>
+        <v>1107</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
@@ -19241,7 +20159,7 @@
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>802</v>
+        <v>1108</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
@@ -19308,7 +20226,7 @@
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>803</v>
+        <v>1109</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
@@ -19375,7 +20293,7 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>804</v>
+        <v>1110</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
@@ -19442,7 +20360,7 @@
         <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>805</v>
+        <v>1111</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
@@ -19509,7 +20427,7 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>806</v>
+        <v>1112</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
@@ -19573,10 +20491,10 @@
     </row>
     <row ht="72" r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>807</v>
+        <v>1113</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>28</v>
@@ -19643,7 +20561,7 @@
         <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>808</v>
+        <v>1114</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>28</v>
@@ -19835,7 +20753,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>809</v>
+        <v>1115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -19902,7 +20820,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>810</v>
+        <v>1116</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -19969,7 +20887,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>811</v>
+        <v>1117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -20036,7 +20954,7 @@
         <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>812</v>
+        <v>1118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -20103,7 +21021,7 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>813</v>
+        <v>1119</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -20170,7 +21088,7 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>814</v>
+        <v>1120</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -20237,7 +21155,7 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>815</v>
+        <v>1121</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -20304,7 +21222,7 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>816</v>
+        <v>1122</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -20371,7 +21289,7 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>817</v>
+        <v>1123</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -20438,7 +21356,7 @@
         <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>818</v>
+        <v>1124</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
@@ -20505,7 +21423,7 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>819</v>
+        <v>1125</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -20572,7 +21490,7 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>820</v>
+        <v>1126</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -20639,7 +21557,7 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>821</v>
+        <v>1127</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -20706,7 +21624,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>822</v>
+        <v>1128</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -20773,7 +21691,7 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>823</v>
+        <v>1129</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -20840,7 +21758,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>824</v>
+        <v>1130</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -20907,7 +21825,7 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>825</v>
+        <v>1131</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -20974,7 +21892,7 @@
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>826</v>
+        <v>1132</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -21041,7 +21959,7 @@
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>827</v>
+        <v>1133</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -21108,7 +22026,7 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>828</v>
+        <v>1134</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -21175,7 +22093,7 @@
         <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>829</v>
+        <v>1135</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -21239,10 +22157,10 @@
     </row>
     <row ht="72" r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>830</v>
+        <v>1136</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -21309,7 +22227,7 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>831</v>
+        <v>1137</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
@@ -21376,7 +22294,7 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>832</v>
+        <v>1138</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
@@ -21443,7 +22361,7 @@
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>833</v>
+        <v>1139</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -21510,7 +22428,7 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>834</v>
+        <v>1140</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -21577,7 +22495,7 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>835</v>
+        <v>1141</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -21644,7 +22562,7 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>836</v>
+        <v>1142</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -21711,7 +22629,7 @@
         <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>837</v>
+        <v>1143</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -21778,7 +22696,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>838</v>
+        <v>1144</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -21845,7 +22763,7 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>839</v>
+        <v>1145</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
@@ -21912,7 +22830,7 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>840</v>
+        <v>1146</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>28</v>
@@ -21979,7 +22897,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>841</v>
+        <v>1147</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>28</v>
@@ -22046,7 +22964,7 @@
         <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>842</v>
+        <v>1148</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
@@ -22113,7 +23031,7 @@
         <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>843</v>
+        <v>1149</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>28</v>
@@ -22180,7 +23098,7 @@
         <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>844</v>
+        <v>1150</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>28</v>
@@ -22247,7 +23165,7 @@
         <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>845</v>
+        <v>1151</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
@@ -22314,7 +23232,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>846</v>
+        <v>1152</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>28</v>
@@ -22381,7 +23299,7 @@
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>847</v>
+        <v>1153</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>28</v>
@@ -22448,7 +23366,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>848</v>
+        <v>1154</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>28</v>
@@ -22515,7 +23433,7 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>849</v>
+        <v>1155</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
@@ -22582,7 +23500,7 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>850</v>
+        <v>1156</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>28</v>
@@ -22649,7 +23567,7 @@
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>851</v>
+        <v>1157</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>28</v>
@@ -22716,7 +23634,7 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>852</v>
+        <v>1158</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>28</v>
@@ -22783,7 +23701,7 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>853</v>
+        <v>1159</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>28</v>
@@ -22850,7 +23768,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>854</v>
+        <v>1160</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>28</v>
@@ -22917,7 +23835,7 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>855</v>
+        <v>1161</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
@@ -22984,7 +23902,7 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>856</v>
+        <v>1162</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>28</v>
@@ -23051,7 +23969,7 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>857</v>
+        <v>1163</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>28</v>
@@ -23247,7 +24165,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>858</v>
+        <v>1164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -23314,7 +24232,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>859</v>
+        <v>1165</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -23381,7 +24299,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>860</v>
+        <v>1166</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -23445,10 +24363,10 @@
     </row>
     <row ht="72" r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>861</v>
+        <v>1167</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
@@ -23515,7 +24433,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>862</v>
+        <v>1168</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -23582,7 +24500,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>863</v>
+        <v>1169</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -23646,10 +24564,10 @@
     </row>
     <row ht="72" r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>864</v>
+        <v>1170</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -23716,7 +24634,7 @@
         <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>865</v>
+        <v>1171</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -23783,7 +24701,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>866</v>
+        <v>1172</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
@@ -24096,10 +25014,10 @@
     </row>
     <row ht="72" r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>867</v>
+        <v>1173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -24163,10 +25081,10 @@
     </row>
     <row ht="72" r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>868</v>
+        <v>1174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -24233,7 +25151,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>869</v>
+        <v>1175</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -24300,7 +25218,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>870</v>
+        <v>1176</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
@@ -24367,7 +25285,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>871</v>
+        <v>1177</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -24434,7 +25352,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>872</v>
+        <v>1178</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -24498,10 +25416,10 @@
     </row>
     <row ht="72" r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>873</v>
+        <v>1179</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -24568,7 +25486,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>874</v>
+        <v>1180</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -24635,7 +25553,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>875</v>
+        <v>1181</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
@@ -24951,7 +25869,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>876</v>
+        <v>1182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -25018,7 +25936,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>877</v>
+        <v>1183</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -25085,7 +26003,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>878</v>
+        <v>1184</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -25152,7 +26070,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>879</v>
+        <v>1185</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
@@ -25219,7 +26137,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>880</v>
+        <v>1186</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -25286,7 +26204,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>881</v>
+        <v>1187</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -25353,7 +26271,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>882</v>
+        <v>1188</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -25420,7 +26338,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>883</v>
+        <v>1189</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -25487,7 +26405,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>884</v>
+        <v>1190</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
@@ -25803,7 +26721,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>885</v>
+        <v>1191</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -25870,7 +26788,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>886</v>
+        <v>1192</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
@@ -25937,7 +26855,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>887</v>
+        <v>1193</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -26004,7 +26922,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>888</v>
+        <v>1194</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>47</v>
@@ -26071,7 +26989,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>889</v>
+        <v>1195</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>47</v>
@@ -26138,7 +27056,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>890</v>
+        <v>1196</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>47</v>
@@ -26205,7 +27123,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>891</v>
+        <v>1197</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -26272,7 +27190,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>892</v>
+        <v>1198</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -26339,7 +27257,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>893</v>
+        <v>1199</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
@@ -26657,7 +27575,7 @@
         <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>894</v>
+        <v>1200</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -26725,7 +27643,7 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>895</v>
+        <v>1201</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>42</v>
@@ -26793,7 +27711,7 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>896</v>
+        <v>1202</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
@@ -26861,7 +27779,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>897</v>
+        <v>1203</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>42</v>
@@ -26929,7 +27847,7 @@
         <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>898</v>
+        <v>1204</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
@@ -26997,7 +27915,7 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>899</v>
+        <v>1205</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
@@ -27065,7 +27983,7 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>900</v>
+        <v>1206</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -27133,7 +28051,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>901</v>
+        <v>1207</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -27201,7 +28119,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>902</v>
+        <v>1208</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
